--- a/docentes/Camarillo Aburto Raymundo - Estadisticos 20202.xlsx
+++ b/docentes/Camarillo Aburto Raymundo - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="94">
   <si>
     <t>Mat</t>
   </si>
@@ -103,45 +103,54 @@
     <t>CABRERA</t>
   </si>
   <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HERAS</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>BRETON</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MEDRANO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HERAS</t>
-  </si>
-  <si>
-    <t>SOLIS</t>
-  </si>
-  <si>
-    <t>BRETON</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MEDRANO</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
     <t>RAMOS</t>
   </si>
   <si>
@@ -157,9 +166,6 @@
     <t>TZOYONTLE</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>VILLAR</t>
   </si>
   <si>
@@ -169,36 +175,45 @@
     <t>CANSECO</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>CALPULALPAN</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>LOZANO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
     <t>LINARES</t>
   </si>
   <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CALPULALPAN</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>LOZANO</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
     <t>PEREZ</t>
   </si>
   <si>
@@ -226,43 +241,52 @@
     <t>AYELEN</t>
   </si>
   <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ESMERALDA</t>
+  </si>
+  <si>
+    <t>ASHLEY ZURELY</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>YARELY JACQUELINE</t>
+  </si>
+  <si>
+    <t>CESAR ENRIQUE</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>AMYRA NAHOMY</t>
+  </si>
+  <si>
+    <t>ZURI SADAY</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>EUSEBIO</t>
+  </si>
+  <si>
+    <t>ALEXIS YAIR</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
     <t>ANDRES</t>
-  </si>
-  <si>
-    <t>ASHLEY ZURELY</t>
-  </si>
-  <si>
-    <t>URIEL</t>
-  </si>
-  <si>
-    <t>YARELY JACQUELINE</t>
-  </si>
-  <si>
-    <t>CESAR ENRIQUE</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>AMYRA NAHOMY</t>
-  </si>
-  <si>
-    <t>ZURI SADAY</t>
-  </si>
-  <si>
-    <t>EUSEBIO</t>
-  </si>
-  <si>
-    <t>ALEXIS YAIR</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
   </si>
   <si>
     <t>ASTRID</t>
@@ -1304,7 +1328,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1345,10 +1369,10 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1368,10 +1392,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1391,10 +1415,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1414,10 +1438,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1437,10 +1461,10 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1460,10 +1484,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1477,16 +1501,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920278</v>
+        <v>19330051920292</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1500,16 +1524,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920443</v>
+        <v>19330051920295</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1523,22 +1547,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920233</v>
+        <v>19330051920443</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1546,16 +1570,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920429</v>
+        <v>19330051920233</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1569,16 +1593,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920235</v>
+        <v>19330051920429</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1592,22 +1616,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920139</v>
+        <v>19330051920235</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1615,22 +1639,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920360</v>
+        <v>19330051920139</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1638,16 +1662,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920367</v>
+        <v>19330051920360</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1661,62 +1685,62 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920045</v>
+        <v>19330051920367</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920067</v>
+        <v>19330051920383</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920069</v>
+        <v>19330051920045</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1730,16 +1754,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920074</v>
+        <v>19330051920067</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1753,16 +1777,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920081</v>
+        <v>19330051920069</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1776,22 +1800,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19330051920436</v>
+        <v>19330051920074</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1799,22 +1823,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19330051920369</v>
+        <v>19330051920081</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1822,22 +1846,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>19330051920398</v>
+        <v>19330051920278</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1845,24 +1869,93 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>19330051920201</v>
+        <v>19330051920436</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920369</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920398</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920201</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="G24">
+      <c r="G27">
         <v>1</v>
       </c>
     </row>
